--- a/A02RNLQ_Fin Buff Calc.xlsx
+++ b/A02RNLQ_Fin Buff Calc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5.-LIGHTGIG\1.-TRABAJOS ONY\29.1-A02RNLQ (LOUSIANA F2)\7.-CORRECCIONES ATT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5.-LIGHTGIG\1.-TRABAJOS ONY\29.1-A02RNLQ (LOUSIANA F2)\7.-CORRECCIONES ATT\CORRECCION 2 ATT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA627961-828B-4EC8-9BFD-D475C41EDDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAC0210-C698-40BF-869B-1D51E26AB55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="FII9xdQ8nYlcZ53A4GQrWQ/e825B6fn3unw+plQMytnFsUkitSJRJ2Cuh7xlkEp6QTwrsu+DN7Z23felzt5+xw==" workbookSaltValue="Zd7fKGY+E4S7GJKHgn67NQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -1129,7 +1129,7 @@
   <dimension ref="B1:J16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G7" sqref="G7:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="15">
-        <v>280780.07</v>
+        <v>279239.07</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2"/>
@@ -1190,7 +1190,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="12">
-        <v>39884.47</v>
+        <v>39314.870000000003</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="D6" s="10">
         <f>IF(D3,D5/D3,0)</f>
-        <v>0.14204879285057517</v>
+        <v>0.14079286970838287</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>5</v>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="D8" s="22">
         <f>D4*0.3+(IF(AND(D6&lt;10%),0,IF(AND(D6&gt;=10%,D6&lt;33%),D5*15%,IF(AND(D6&gt;=33%,D6&lt;50%),D5*20%,IF(AND(D6&gt;=50%,D6&lt;65%),D5*25%,IF(AND(D6&gt;=65%),D5*35%))))))</f>
-        <v>5982.6705000000002</v>
+        <v>5897.2305000000006</v>
       </c>
       <c r="E8" s="21">
         <f>D8/120</f>
-        <v>49.855587499999999</v>
+        <v>49.143587500000002</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="49"/>
@@ -1257,11 +1257,11 @@
       </c>
       <c r="D9" s="14">
         <f>D8*1.5</f>
-        <v>8974.0057500000003</v>
+        <v>8845.8457500000004</v>
       </c>
       <c r="E9" s="13">
         <f>D9/120</f>
-        <v>74.783381250000005</v>
+        <v>73.715381250000007</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="49"/>
@@ -1467,18 +1467,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1498,14 +1498,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BE2BD7C-6DAD-4CBF-AC56-F4C3E2F021EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73036319-82EC-4CF4-9D1B-9B71D51BB86A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1518,4 +1510,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BE2BD7C-6DAD-4CBF-AC56-F4C3E2F021EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/A02RNLQ_Fin Buff Calc.xlsx
+++ b/A02RNLQ_Fin Buff Calc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5.-LIGHTGIG\1.-TRABAJOS ONY\29.1-A02RNLQ (LOUSIANA F2)\7.-CORRECCIONES ATT\CORRECCION 2 ATT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5.-LIGHTGIG\1.-TRABAJOS ONY\29.1-A02RNLQ (LOUSIANA F2)\7.-CORRECCIONES ATT\CORRECCION 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAC0210-C698-40BF-869B-1D51E26AB55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B136490-B8C7-4FBA-8490-52C3B036EE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="FII9xdQ8nYlcZ53A4GQrWQ/e825B6fn3unw+plQMytnFsUkitSJRJ2Cuh7xlkEp6QTwrsu+DN7Z23felzt5+xw==" workbookSaltValue="Zd7fKGY+E4S7GJKHgn67NQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -1129,7 +1129,7 @@
   <dimension ref="B1:J16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:I16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="15">
-        <v>279239.07</v>
+        <v>279203.15999999997</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2"/>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="D6" s="10">
         <f>IF(D3,D5/D3,0)</f>
-        <v>0.14079286970838287</v>
+        <v>0.14081097792732722</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>5</v>
@@ -1467,18 +1467,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1498,6 +1498,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BE2BD7C-6DAD-4CBF-AC56-F4C3E2F021EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73036319-82EC-4CF4-9D1B-9B71D51BB86A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1510,12 +1518,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BE2BD7C-6DAD-4CBF-AC56-F4C3E2F021EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>